--- a/data/csvs/green_areas.xlsx
+++ b/data/csvs/green_areas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/347427117ef1a449/Supinfo/CoursM1/4PROJ/FormaGreen/FormaGreen/data/csvs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A192461-2A42-4823-BA35-0E60E988C856}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{1A192461-2A42-4823-BA35-0E60E988C856}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C95DCDD9-75CA-4895-8832-F1FD1365F34B}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="4020" windowWidth="29040" windowHeight="15840" xr2:uid="{303CE8B4-B747-40B2-AA89-95B6C6343B3D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>name</t>
   </si>
@@ -66,6 +66,36 @@
   </si>
   <si>
     <t>Avenue Paul Héger 42, 1000 Bruxelles</t>
+  </si>
+  <si>
+    <t>European School of Brussels III</t>
+  </si>
+  <si>
+    <t>Boulevard du Triomphe 135, 1050 Ixelles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brussels International Catholic School </t>
+  </si>
+  <si>
+    <t>Rue Général Leman 86, 1040 Etterbeek</t>
+  </si>
+  <si>
+    <t>Maria-Boodschaplyceum</t>
+  </si>
+  <si>
+    <t>Rue de la Braie 22, 1000 Bruxelles</t>
+  </si>
+  <si>
+    <t>Vlerick Business School</t>
+  </si>
+  <si>
+    <t>Avenue du Boulevard 21, 1210 Bruxelles</t>
+  </si>
+  <si>
+    <t>Atheneum Campus Comenius</t>
+  </si>
+  <si>
+    <t>Rue Félix Vande Sande 11, 1081 Koekelberg</t>
   </si>
 </sst>
 </file>
@@ -417,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DB7DEF7-CA03-4793-BD4E-35A3EAC4C438}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,7 +506,93 @@
         <v>4.3816692000000002</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>50.828846400000003</v>
+      </c>
+      <c r="E4">
+        <v>4.3634630999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <v>50.855373800000002</v>
+      </c>
+      <c r="E5">
+        <v>4.2353094999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6">
+        <v>50.828846400000003</v>
+      </c>
+      <c r="E6">
+        <v>4.3634630999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7">
+        <v>50.855373800000002</v>
+      </c>
+      <c r="E7">
+        <v>4.2353094999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <v>50.855373800000002</v>
+      </c>
+      <c r="E8">
+        <v>4.2353094999999996</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>